--- a/runs/acres22young/reports/trainDataStats.xlsx
+++ b/runs/acres22young/reports/trainDataStats.xlsx
@@ -875,7 +875,7 @@
         <v>530</v>
       </c>
       <c r="G2" t="n">
-        <v>1689</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="3">
@@ -898,7 +898,7 @@
         <v>66</v>
       </c>
       <c r="G3" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
